--- a/src/functionalTest/resources/CCD_HRS_v1.7-AAT.xlsx
+++ b/src/functionalTest/resources/CCD_HRS_v1.7-AAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafadayican/hmcts/em/em-hrs-api/src/functionalTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC033A27-7ECA-684C-9770-8E21143C1552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF16BFF-8D1A-D246-8D3A-C26F0AF449C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" tabRatio="500" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,13 +1158,13 @@
     <t>Yogesh Hullatti</t>
   </si>
   <si>
-    <t>Add new system user-remove close amend access form hrs-casewroker</t>
-  </si>
-  <si>
     <t xml:space="preserve">Removed Open Case </t>
   </si>
   <si>
     <t>Updated Authorisation for Close Case Event</t>
+  </si>
+  <si>
+    <t>Add new system user-remove close amend access from hrs-casewroker</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2414,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2586,7 +2586,7 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="9">
         <v>45614</v>
@@ -2600,7 +2600,7 @@
         <v>1.6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" s="9">
         <v>45615</v>
@@ -2614,7 +2614,7 @@
         <v>1.7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C15" s="9">
         <v>45616</v>
@@ -5451,7 +5451,7 @@
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="A4:F14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5542,7 +5542,7 @@
         <v>288</v>
       </c>
       <c r="F4" s="145" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
